--- a/Таблица с тест-кейсами NextShop.xlsx
+++ b/Таблица с тест-кейсами NextShop.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
   <si>
     <t>Провалено</t>
   </si>
@@ -1261,6 +1261,33 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1299,33 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1541,7 +1541,7 @@
   <dimension ref="A1:AL940"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1562,13 +1562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1614,13 +1614,13 @@
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1666,13 +1666,13 @@
       <c r="AL2" s="8"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1708,13 +1708,13 @@
       <c r="AL3" s="8"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1750,13 +1750,13 @@
       <c r="AL4" s="8"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1802,42 +1802,42 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="69" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="58" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="15"/>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="58" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="15"/>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="58" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="15"/>
-      <c r="P6" s="64" t="s">
+      <c r="P6" s="58" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="R6" s="64" t="s">
+      <c r="R6" s="58" t="s">
         <v>15</v>
       </c>
       <c r="S6" s="15"/>
@@ -1862,9 +1862,9 @@
       <c r="AL6" s="18"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
@@ -1874,20 +1874,20 @@
       <c r="F7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="65"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="65"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="65"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="65"/>
+      <c r="P7" s="59"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="65"/>
+      <c r="R7" s="59"/>
       <c r="S7" s="15"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
@@ -1920,7 +1920,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="51" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -2020,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="57" t="s">
         <v>132</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2068,7 +2068,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="32"/>
@@ -2312,7 +2312,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="67"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="32"/>
@@ -2954,7 +2954,7 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="68"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -3398,7 +3398,7 @@
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="67"/>
+      <c r="E38" s="52"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
@@ -3842,7 +3842,7 @@
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
-      <c r="E47" s="69"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
       <c r="H47" s="32"/>
@@ -3936,7 +3936,7 @@
       <c r="B49" s="44"/>
       <c r="C49" s="32"/>
       <c r="D49" s="44"/>
-      <c r="E49" s="69"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
       <c r="H49" s="32"/>
@@ -4030,7 +4030,7 @@
       <c r="B51" s="44"/>
       <c r="C51" s="15"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="69"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
       <c r="H51" s="32"/>
@@ -4124,7 +4124,7 @@
       <c r="B53" s="44"/>
       <c r="C53" s="32"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="67"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="32"/>
@@ -4166,7 +4166,7 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="70"/>
+      <c r="E54" s="55"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="26"/>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="69"/>
+      <c r="E55" s="54"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
       <c r="H55" s="32"/>
@@ -4252,7 +4252,7 @@
       <c r="B56" s="26"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="70"/>
+      <c r="E56" s="55"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="26"/>
@@ -4405,9 +4405,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="47"/>
-      <c r="J59" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="J59" s="27"/>
       <c r="K59" s="48"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
@@ -4486,7 +4484,7 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="71"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4526,7 +4524,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="71"/>
+      <c r="E62" s="56"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4566,7 +4564,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="71"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4606,7 +4604,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="71"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -4646,7 +4644,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="71"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -4686,7 +4684,7 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="71"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -4726,7 +4724,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="71"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -4766,7 +4764,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="71"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -4806,7 +4804,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="71"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -4846,7 +4844,7 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="71"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4886,7 +4884,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="71"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4926,7 +4924,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="71"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -4966,7 +4964,7 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="71"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -5006,7 +5004,7 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="71"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -5046,7 +5044,7 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="71"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -5086,7 +5084,7 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="71"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -5126,7 +5124,7 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="71"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -5166,7 +5164,7 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="71"/>
+      <c r="E78" s="56"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -5206,7 +5204,7 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="71"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -5246,7 +5244,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="71"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -5286,7 +5284,7 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="71"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -5326,7 +5324,7 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="71"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -5366,7 +5364,7 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="71"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -5406,7 +5404,7 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="71"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -5446,7 +5444,7 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="71"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5486,7 +5484,7 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="71"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -5526,7 +5524,7 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="71"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -5566,7 +5564,7 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="71"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5606,7 +5604,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="71"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -5646,7 +5644,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="71"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -5686,7 +5684,7 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="71"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -5726,7 +5724,7 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="71"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5766,7 +5764,7 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="71"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -5806,7 +5804,7 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="71"/>
+      <c r="E94" s="56"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5846,7 +5844,7 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="71"/>
+      <c r="E95" s="56"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -5886,7 +5884,7 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="71"/>
+      <c r="E96" s="56"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -5926,7 +5924,7 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="71"/>
+      <c r="E97" s="56"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5966,7 +5964,7 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="71"/>
+      <c r="E98" s="56"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -6006,7 +6004,7 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="71"/>
+      <c r="E99" s="56"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -6046,7 +6044,7 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="71"/>
+      <c r="E100" s="56"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -6086,7 +6084,7 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="71"/>
+      <c r="E101" s="56"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -6126,7 +6124,7 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="71"/>
+      <c r="E102" s="56"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -6166,7 +6164,7 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="71"/>
+      <c r="E103" s="56"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -6206,7 +6204,7 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="71"/>
+      <c r="E104" s="56"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -6246,7 +6244,7 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="71"/>
+      <c r="E105" s="56"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -6286,7 +6284,7 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="71"/>
+      <c r="E106" s="56"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -6326,7 +6324,7 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="71"/>
+      <c r="E107" s="56"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -6366,7 +6364,7 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="71"/>
+      <c r="E108" s="56"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -6406,7 +6404,7 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="71"/>
+      <c r="E109" s="56"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -6446,7 +6444,7 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="71"/>
+      <c r="E110" s="56"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -6486,7 +6484,7 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="71"/>
+      <c r="E111" s="56"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -6526,7 +6524,7 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="71"/>
+      <c r="E112" s="56"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -6566,7 +6564,7 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="71"/>
+      <c r="E113" s="56"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6606,7 +6604,7 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="71"/>
+      <c r="E114" s="56"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -6646,7 +6644,7 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="71"/>
+      <c r="E115" s="56"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -6686,7 +6684,7 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="71"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -6726,7 +6724,7 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="71"/>
+      <c r="E117" s="56"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -6766,7 +6764,7 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="71"/>
+      <c r="E118" s="56"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -6806,7 +6804,7 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="71"/>
+      <c r="E119" s="56"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -6846,7 +6844,7 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="71"/>
+      <c r="E120" s="56"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -6886,7 +6884,7 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="71"/>
+      <c r="E121" s="56"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -6926,7 +6924,7 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="71"/>
+      <c r="E122" s="56"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -6966,7 +6964,7 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="71"/>
+      <c r="E123" s="56"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -7006,7 +7004,7 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="71"/>
+      <c r="E124" s="56"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -7046,7 +7044,7 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="71"/>
+      <c r="E125" s="56"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -7086,7 +7084,7 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="71"/>
+      <c r="E126" s="56"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -7126,7 +7124,7 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="71"/>
+      <c r="E127" s="56"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -7166,7 +7164,7 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="71"/>
+      <c r="E128" s="56"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -7206,7 +7204,7 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="71"/>
+      <c r="E129" s="56"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -7246,7 +7244,7 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="71"/>
+      <c r="E130" s="56"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -7286,7 +7284,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="71"/>
+      <c r="E131" s="56"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -7326,7 +7324,7 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="71"/>
+      <c r="E132" s="56"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -7366,7 +7364,7 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="71"/>
+      <c r="E133" s="56"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -7406,7 +7404,7 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="71"/>
+      <c r="E134" s="56"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -7446,7 +7444,7 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="71"/>
+      <c r="E135" s="56"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -7486,7 +7484,7 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="71"/>
+      <c r="E136" s="56"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -7526,7 +7524,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="71"/>
+      <c r="E137" s="56"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -7566,7 +7564,7 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="71"/>
+      <c r="E138" s="56"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -7606,7 +7604,7 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="71"/>
+      <c r="E139" s="56"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -7646,7 +7644,7 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="71"/>
+      <c r="E140" s="56"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
